--- a/medicine/Psychotrope/La_Clef_des_terroirs/La_Clef_des_terroirs.xlsx
+++ b/medicine/Psychotrope/La_Clef_des_terroirs/La_Clef_des_terroirs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La Clef des terroirs est un film documentaire long métrage expliquant la viticulture biodynamique dans le monde du vin. Le film sorti en 2011 a été imaginé et réalisé par Guillaume Bodin, œnologue de formation[1], et produit-distribué par Univers Ditvin.
+La Clef des terroirs est un film documentaire long métrage expliquant la viticulture biodynamique dans le monde du vin. Le film sorti en 2011 a été imaginé et réalisé par Guillaume Bodin, œnologue de formation, et produit-distribué par Univers Ditvin.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Dans le film, on montre comment le monde du vin a rapidement compris l'enjeu de cette agriculture, la perte de la notion de terroir s'y faisant ressentir plus vivement que dans les autres productions agricoles. Les vignerons élaborent leurs vins avec une minutie particulière, dans les vignes comme à la cave; c'est un métier où chaque détail a son importance. Ils s'interrogent sur la compréhension de la nature par l'homme.
 Plusieurs vignerons français et acteurs de la filière viti-vinicole sont interviewés et s'expriment sur leur choix pour cette viticulture, tels que :
@@ -557,7 +571,9 @@
           <t>Fiche technique[2]</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : La Clef des Terroirs
 Réalisation : Guillaume Bodin
@@ -577,7 +593,7 @@
 Genre : Documentaire long métrage
 Budget : autour de 80 000 €
 Durée : 82 min
-Date de sortie en France : 16 mars 2011[3]
+Date de sortie en France : 16 mars 2011
 Distribution DVD et VoD: Éditions Montparnasse
 Distribution télévision: Saint-Thomas Distribution (Isabelle Benkemoun)</t>
         </is>
@@ -607,11 +623,48 @@
           <t>Réception du film</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le 23 mai 2012, Philippe Meyer en fait l'éloge dans sa chronique matinale sur France Culture[4].
-Distinctions
-Œnovidéo 2011
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 23 mai 2012, Philippe Meyer en fait l'éloge dans sa chronique matinale sur France Culture.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>La_Clef_des_terroirs</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Clef_des_terroirs</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Réception du film</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Œnovidéo 2011
 Grand Prix du Jury
 Prix Vin, Santé, Plaisir de vivre</t>
         </is>
